--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29843860-BCDC-474D-A032-0ECA01ADB860}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB23DC-4A68-7C47-813B-BE965EF60912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Python</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>20190925-01</t>
+  </si>
+  <si>
+    <t>celery flower -A backend --port=5555 -f /var/log/casualapp/flower.log &amp;</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -346,7 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
-  <dimension ref="A2:F61"/>
+  <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D44"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -685,41 +687,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="19">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
@@ -1114,71 +1116,74 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2"/>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D56" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="2" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="C57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="C54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="2" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="C58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="C55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="C58" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="C59" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>51</v>
+      <c r="D59" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="C60" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="C61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>24</v>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="C62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB23DC-4A68-7C47-813B-BE965EF60912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2BF4A-D4FF-A747-9186-22C455ED7677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>cd /usr/local/casualapp/active</t>
   </si>
   <si>
-    <t>sh /usr/local/casualapp/startup.sh</t>
-  </si>
-  <si>
     <t>uwsgi --restart /usr/local/casualapp/active/casualapp.pid</t>
   </si>
   <si>
@@ -201,10 +198,13 @@
     <t xml:space="preserve">pkill -9 celery </t>
   </si>
   <si>
-    <t>20190925-01</t>
-  </si>
-  <si>
     <t>celery flower -A backend --port=5555 -f /var/log/casualapp/flower.log &amp;</t>
+  </si>
+  <si>
+    <t>20190928-01</t>
+  </si>
+  <si>
+    <t>sh /usr/local/casualapp/active/startup.sh</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20190925-01</v>
+        <v>cp -r backend 20190928-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -819,7 +819,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20190925-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20190925-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20190925-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20190925-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20190925-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +837,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20190925-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20190928-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -846,7 +846,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20190925-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20190928-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -863,7 +863,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20190925-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20190928-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20190925-01.zip 20190925-01</v>
+        <v>zip -r 20190928-01.zip 20190928-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -891,7 +891,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20190925-01</v>
+        <v>rm -r 20190928-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -926,7 +926,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20190925-01.zip</v>
+        <v>put 20190928-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -943,7 +943,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20190925-01.zip</v>
+        <v>rm -r 20190928-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -966,7 +966,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20190925-01.zip /usr/local/casualapp/</v>
+        <v>mv 20190928-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,7 +983,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20190925-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20190928-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -995,7 +995,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20190925-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20190928-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1021,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>36</v>
@@ -1120,7 +1120,7 @@
         <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1161,7 +1161,7 @@
         <v>29</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1169,13 +1169,13 @@
         <v>29</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1183,7 +1183,7 @@
         <v>29</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE2BF4A-D4FF-A747-9186-22C455ED7677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3A8CB-4E26-C34F-A822-05FCF7CC7915}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -201,10 +201,10 @@
     <t>celery flower -A backend --port=5555 -f /var/log/casualapp/flower.log &amp;</t>
   </si>
   <si>
-    <t>20190928-01</t>
-  </si>
-  <si>
-    <t>sh /usr/local/casualapp/active/startup.sh</t>
+    <t>20190929-02</t>
+  </si>
+  <si>
+    <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A2:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20190928-01</v>
+        <v>cp -r backend 20190929-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -819,7 +819,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20190928-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +837,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20190928-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20190929-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -846,7 +846,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20190928-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20190929-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -863,7 +863,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20190928-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20190929-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20190928-01.zip 20190928-01</v>
+        <v>zip -r 20190929-02.zip 20190929-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -891,7 +891,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20190928-01</v>
+        <v>rm -r 20190929-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -926,7 +926,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20190928-01.zip</v>
+        <v>put 20190929-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -943,7 +943,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20190928-01.zip</v>
+        <v>rm -r 20190929-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -966,7 +966,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20190928-01.zip /usr/local/casualapp/</v>
+        <v>mv 20190929-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,7 +983,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20190928-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20190929-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -995,7 +995,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20190928-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20190929-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B3A8CB-4E26-C34F-A822-05FCF7CC7915}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83E8B97-68DF-E944-BAA5-0BD541C99E36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
+    <workbookView xWindow="3720" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
@@ -201,10 +201,10 @@
     <t>celery flower -A backend --port=5555 -f /var/log/casualapp/flower.log &amp;</t>
   </si>
   <si>
-    <t>20190929-02</t>
-  </si>
-  <si>
     <t>bash /usr/local/casualapp/active/startup.sh</t>
+  </si>
+  <si>
+    <t>20191002-01</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="2"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20190929-02</v>
+        <v>cp -r backend 20191002-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -819,7 +819,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20190929-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +837,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20190929-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191002-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -846,7 +846,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20190929-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191002-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -863,7 +863,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20190929-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191002-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20190929-02.zip 20190929-02</v>
+        <v>zip -r 20191002-01.zip 20191002-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -891,7 +891,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20190929-02</v>
+        <v>rm -r 20191002-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -926,7 +926,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20190929-02.zip</v>
+        <v>put 20191002-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -943,7 +943,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20190929-02.zip</v>
+        <v>rm -r 20191002-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -966,7 +966,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20190929-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191002-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,7 +983,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20190929-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191002-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -995,7 +995,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20190929-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191002-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1120,7 +1120,7 @@
         <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83E8B97-68DF-E944-BAA5-0BD541C99E36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8F4DC-E757-694A-9CE1-4678AF5212D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191002-01</t>
+    <t>20191002-02</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +801,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191002-01</v>
+        <v>cp -r backend 20191002-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -819,7 +819,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191002-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +837,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191002-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191002-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -846,7 +846,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191002-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191002-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -863,7 +863,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191002-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191002-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -882,7 +882,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191002-01.zip 20191002-01</v>
+        <v>zip -r 20191002-02.zip 20191002-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -891,7 +891,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191002-01</v>
+        <v>rm -r 20191002-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -926,7 +926,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191002-01.zip</v>
+        <v>put 20191002-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -943,7 +943,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191002-01.zip</v>
+        <v>rm -r 20191002-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -966,7 +966,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191002-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191002-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,7 +983,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191002-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191002-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -995,7 +995,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191002-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191002-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8F4DC-E757-694A-9CE1-4678AF5212D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6BAD20-1DC2-274F-BFA2-26448E2F6782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191002-02</t>
+    <t>20191002-03</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -356,6 +356,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191002-02</v>
+        <v>cp -r backend 20191002-03</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -819,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191002-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191002-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191002-03/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -846,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191002-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191002-03/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -863,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191002-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191002-03/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -882,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191002-02.zip 20191002-02</v>
+        <v>zip -r 20191002-03.zip 20191002-03</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -891,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191002-02</v>
+        <v>rm -r 20191002-03</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -926,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191002-02.zip</v>
+        <v>put 20191002-03.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -943,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191002-02.zip</v>
+        <v>rm -r 20191002-03.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -966,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191002-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191002-03.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191002-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191002-03.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -995,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191002-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191002-03 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1017,19 +1018,19 @@
       <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="17">
-      <c r="C43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="12" t="s">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6BAD20-1DC2-274F-BFA2-26448E2F6782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF96A8-1A7C-1B4C-B695-C78B7E20C72C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
+    <workbookView xWindow="4200" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191002-03</t>
+    <t>20191005-01</t>
   </si>
 </sst>
 </file>
@@ -350,13 +350,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -688,41 +688,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="19">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191002-03</v>
+        <v>cp -r backend 20191005-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191002-03/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191002-03/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191005-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191002-03/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191005-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191002-03/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191005-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191002-03.zip 20191002-03</v>
+        <v>zip -r 20191005-01.zip 20191005-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191002-03</v>
+        <v>rm -r 20191005-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191002-03.zip</v>
+        <v>put 20191005-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191002-03.zip</v>
+        <v>rm -r 20191005-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191002-03.zip /usr/local/casualapp/</v>
+        <v>mv 20191005-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191002-03.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191005-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191002-03 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191005-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1027,10 +1027,10 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="17">
-      <c r="C43" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="16" t="s">
+      <c r="C43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="12" t="s">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF96A8-1A7C-1B4C-B695-C78B7E20C72C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5365A31E-59C5-F04E-BCB8-EE4253920F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191005-01</t>
+    <t>20191005-02</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191005-01</v>
+        <v>cp -r backend 20191005-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191005-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191005-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191005-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191005-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191005-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191005-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191005-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191005-01.zip 20191005-01</v>
+        <v>zip -r 20191005-02.zip 20191005-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191005-01</v>
+        <v>rm -r 20191005-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191005-01.zip</v>
+        <v>put 20191005-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191005-01.zip</v>
+        <v>rm -r 20191005-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191005-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191005-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191005-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191005-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191005-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191005-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5365A31E-59C5-F04E-BCB8-EE4253920F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54099E74-57F9-4C4A-A9EB-346EA70C80E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191005-02</t>
+    <t>20191006-01</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191005-02</v>
+        <v>cp -r backend 20191006-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191005-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191005-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191006-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191005-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191006-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191005-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191006-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191005-02.zip 20191005-02</v>
+        <v>zip -r 20191006-01.zip 20191006-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191005-02</v>
+        <v>rm -r 20191006-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191005-02.zip</v>
+        <v>put 20191006-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191005-02.zip</v>
+        <v>rm -r 20191006-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191005-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191006-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191005-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191006-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191005-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191006-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54099E74-57F9-4C4A-A9EB-346EA70C80E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90556F4-87AB-F940-A851-5CE84CBB00A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
+    <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191006-01</t>
+    <t>20191008-01</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191006-01</v>
+        <v>cp -r backend 20191008-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191006-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191006-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191008-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191006-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191008-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191006-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191008-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191006-01.zip 20191006-01</v>
+        <v>zip -r 20191008-01.zip 20191008-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191006-01</v>
+        <v>rm -r 20191008-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191006-01.zip</v>
+        <v>put 20191008-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191006-01.zip</v>
+        <v>rm -r 20191008-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191006-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191008-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191006-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191008-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191006-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191008-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90556F4-87AB-F940-A851-5CE84CBB00A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32093DE-7587-9441-BB0A-159F1C99485E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191008-01</t>
+    <t>20191008-02</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191008-01</v>
+        <v>cp -r backend 20191008-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191008-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191008-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191008-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191008-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191008-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191008-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191008-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191008-01.zip 20191008-01</v>
+        <v>zip -r 20191008-02.zip 20191008-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191008-01</v>
+        <v>rm -r 20191008-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191008-01.zip</v>
+        <v>put 20191008-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191008-01.zip</v>
+        <v>rm -r 20191008-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191008-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191008-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191008-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191008-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191008-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191008-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32093DE-7587-9441-BB0A-159F1C99485E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B42C8B-019A-7746-9B35-F67F30E2E26D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191008-02</t>
+    <t>20191009-01</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191008-02</v>
+        <v>cp -r backend 20191009-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191008-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191008-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191009-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191008-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191009-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191008-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191009-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191008-02.zip 20191008-02</v>
+        <v>zip -r 20191009-01.zip 20191009-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191008-02</v>
+        <v>rm -r 20191009-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191008-02.zip</v>
+        <v>put 20191009-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191008-02.zip</v>
+        <v>rm -r 20191009-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191008-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191009-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191008-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191009-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191008-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191009-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B42C8B-019A-7746-9B35-F67F30E2E26D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BC7CBD-BA52-BE44-BA4D-86DD0822AB50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191009-01</t>
+    <t>20191009-02</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191009-01</v>
+        <v>cp -r backend 20191009-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191009-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191009-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191009-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191009-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191009-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191009-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191009-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191009-01.zip 20191009-01</v>
+        <v>zip -r 20191009-02.zip 20191009-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191009-01</v>
+        <v>rm -r 20191009-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191009-01.zip</v>
+        <v>put 20191009-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191009-01.zip</v>
+        <v>rm -r 20191009-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191009-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191009-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191009-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191009-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191009-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191009-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BC7CBD-BA52-BE44-BA4D-86DD0822AB50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B0A73-97A0-D24B-8E5D-19EB35DA5F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -1041,13 +1041,13 @@
       <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E45" t="s">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084B0A73-97A0-D24B-8E5D-19EB35DA5F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7DAAC-9D6E-AF47-8614-D2EAC38AB717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191009-02</t>
+    <t>20191012-01</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191009-02</v>
+        <v>cp -r backend 20191012-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191009-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191009-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191012-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191009-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191012-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191009-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191012-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191009-02.zip 20191009-02</v>
+        <v>zip -r 20191012-01.zip 20191012-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191009-02</v>
+        <v>rm -r 20191012-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191009-02.zip</v>
+        <v>put 20191012-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191009-02.zip</v>
+        <v>rm -r 20191012-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191009-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191012-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191009-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191012-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191009-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191012-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7DAAC-9D6E-AF47-8614-D2EAC38AB717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0C951-E404-794D-869F-5349BCBEA56F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191012-01</t>
+    <t>20191012-02</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A2:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191012-01</v>
+        <v>cp -r backend 20191012-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191012-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191012-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191012-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191012-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191012-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191012-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191012-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191012-01.zip 20191012-01</v>
+        <v>zip -r 20191012-02.zip 20191012-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191012-01</v>
+        <v>rm -r 20191012-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191012-01.zip</v>
+        <v>put 20191012-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191012-01.zip</v>
+        <v>rm -r 20191012-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191012-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191012-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191012-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191012-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191012-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191012-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0C951-E404-794D-869F-5349BCBEA56F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4AFF95-9A24-4E40-AE90-D2871186C134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191012-02</t>
+    <t>20191015-01</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191012-02</v>
+        <v>cp -r backend 20191015-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191012-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191012-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191015-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191012-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191015-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191012-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191015-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191012-02.zip 20191012-02</v>
+        <v>zip -r 20191015-01.zip 20191015-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191012-02</v>
+        <v>rm -r 20191015-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191012-02.zip</v>
+        <v>put 20191015-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191012-02.zip</v>
+        <v>rm -r 20191015-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191012-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191015-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191012-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191015-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191012-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191015-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4AFF95-9A24-4E40-AE90-D2871186C134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E17FF-8447-AC4F-AC53-8A80C13DE13F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191015-01</t>
+    <t>20191016-01</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191015-01</v>
+        <v>cp -r backend 20191016-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191015-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191015-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191016-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191015-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191016-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191015-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191016-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191015-01.zip 20191015-01</v>
+        <v>zip -r 20191016-01.zip 20191016-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191015-01</v>
+        <v>rm -r 20191016-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191015-01.zip</v>
+        <v>put 20191016-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191015-01.zip</v>
+        <v>rm -r 20191016-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191015-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191016-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191015-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191016-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191015-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191016-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E17FF-8447-AC4F-AC53-8A80C13DE13F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1912831-43EF-8B48-BEC8-20B14D20B96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191016-01</t>
+    <t>20191017-01</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191016-01</v>
+        <v>cp -r backend 20191017-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191016-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191016-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191017-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191016-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191017-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191016-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191017-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191016-01.zip 20191016-01</v>
+        <v>zip -r 20191017-01.zip 20191017-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191016-01</v>
+        <v>rm -r 20191017-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191016-01.zip</v>
+        <v>put 20191017-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191016-01.zip</v>
+        <v>rm -r 20191017-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191016-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191017-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191016-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191017-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191016-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191017-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1912831-43EF-8B48-BEC8-20B14D20B96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D87D7-0206-9E4A-8BD1-8EFC75526237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191017-01</t>
+    <t>20191019-01</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191017-01</v>
+        <v>cp -r backend 20191019-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191017-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191017-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191019-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191017-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191019-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191017-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191019-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191017-01.zip 20191017-01</v>
+        <v>zip -r 20191019-01.zip 20191019-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191017-01</v>
+        <v>rm -r 20191019-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191017-01.zip</v>
+        <v>put 20191019-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191017-01.zip</v>
+        <v>rm -r 20191019-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191017-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191019-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191017-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191019-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191017-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191019-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D87D7-0206-9E4A-8BD1-8EFC75526237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26330E3-DD13-5C43-A7DB-043D3A3962E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
+    <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191019-01</t>
+    <t>20191019-03</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191019-01</v>
+        <v>cp -r backend 20191019-03</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191019-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191019-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191019-03/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191019-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191019-03/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191019-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191019-03/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191019-01.zip 20191019-01</v>
+        <v>zip -r 20191019-03.zip 20191019-03</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191019-01</v>
+        <v>rm -r 20191019-03</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191019-01.zip</v>
+        <v>put 20191019-03.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191019-01.zip</v>
+        <v>rm -r 20191019-03.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191019-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191019-03.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191019-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191019-03.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191019-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191019-03 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26330E3-DD13-5C43-A7DB-043D3A3962E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731FCCD2-20A5-D443-A4A7-C13F4234596D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191019-03</t>
+    <t>20191021-01</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191019-03</v>
+        <v>cp -r backend 20191021-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191019-03/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191019-03/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191021-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191019-03/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191021-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191019-03/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191021-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191019-03.zip 20191019-03</v>
+        <v>zip -r 20191021-01.zip 20191021-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191019-03</v>
+        <v>rm -r 20191021-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191019-03.zip</v>
+        <v>put 20191021-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191019-03.zip</v>
+        <v>rm -r 20191021-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191019-03.zip /usr/local/casualapp/</v>
+        <v>mv 20191021-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191019-03.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191021-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191019-03 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191021-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731FCCD2-20A5-D443-A4A7-C13F4234596D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5C297-C071-994C-9049-94A3212861AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191021-01</t>
+    <t>20191021-02</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191021-01</v>
+        <v>cp -r backend 20191021-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191021-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191021-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191021-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191021-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191021-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191021-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191021-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191021-01.zip 20191021-01</v>
+        <v>zip -r 20191021-02.zip 20191021-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191021-01</v>
+        <v>rm -r 20191021-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191021-01.zip</v>
+        <v>put 20191021-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191021-01.zip</v>
+        <v>rm -r 20191021-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191021-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191021-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191021-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191021-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191021-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191021-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5C297-C071-994C-9049-94A3212861AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC7CD8-4AC9-B248-B934-BEBA5987217F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191021-02</t>
+    <t>20191024-01</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191021-02</v>
+        <v>cp -r backend 20191024-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191021-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191021-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191024-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191021-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191024-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191021-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191024-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191021-02.zip 20191021-02</v>
+        <v>zip -r 20191024-01.zip 20191024-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191021-02</v>
+        <v>rm -r 20191024-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191021-02.zip</v>
+        <v>put 20191024-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191021-02.zip</v>
+        <v>rm -r 20191024-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191021-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191024-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191021-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191024-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191021-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191024-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC7CD8-4AC9-B248-B934-BEBA5987217F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1EA92-14CF-FD4E-AF7A-321522FDDD2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191024-01</t>
+    <t>20191024-02</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191024-01</v>
+        <v>cp -r backend 20191024-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191024-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191024-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191024-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191024-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191024-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191024-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191024-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191024-01.zip 20191024-01</v>
+        <v>zip -r 20191024-02.zip 20191024-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191024-01</v>
+        <v>rm -r 20191024-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191024-01.zip</v>
+        <v>put 20191024-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191024-01.zip</v>
+        <v>rm -r 20191024-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191024-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191024-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191024-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191024-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191024-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191024-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC1EA92-14CF-FD4E-AF7A-321522FDDD2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB25DF-6FF2-9446-953D-EEB3EBF58432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191024-02</t>
+    <t>20191024-04</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191024-02</v>
+        <v>cp -r backend 20191024-04</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +820,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191024-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +838,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191024-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191024-04/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +847,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191024-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191024-04/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +864,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191024-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191024-04/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191024-02.zip 20191024-02</v>
+        <v>zip -r 20191024-04.zip 20191024-04</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +892,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191024-02</v>
+        <v>rm -r 20191024-04</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -927,7 +927,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191024-02.zip</v>
+        <v>put 20191024-04.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +944,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191024-02.zip</v>
+        <v>rm -r 20191024-04.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -967,7 +967,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191024-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191024-04.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -984,7 +984,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191024-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191024-04.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +996,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191024-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191024-04 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB25DF-6FF2-9446-953D-EEB3EBF58432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8284DD91-3612-044A-81AC-C21BD3450448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'application deploy commands'!$A$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'application deploy commands'!$A$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Python</t>
   </si>
@@ -126,9 +126,6 @@
     <t>setup environment</t>
   </si>
   <si>
-    <t>application restart</t>
-  </si>
-  <si>
     <t>db migrate</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>pre-deployment</t>
   </si>
   <si>
-    <t>celery -A marketing_automation control shutdown</t>
-  </si>
-  <si>
     <t>prod</t>
   </si>
   <si>
@@ -174,44 +168,17 @@
     <t>python /usr/local/casualapp/active/manage.py update_beat_tasks</t>
   </si>
   <si>
-    <t>uwsgi --ini uwsgi.ini &amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>cd /usr/local/casualapp/active</t>
-  </si>
-  <si>
-    <t>uwsgi --restart /usr/local/casualapp/active/casualapp.pid</t>
-  </si>
-  <si>
-    <t>celery -A backend beat -l info -f /var/log/casualapp/beat.log --scheduler django_celery_beat.schedulers:DatabaseScheduler &amp;</t>
-  </si>
-  <si>
-    <t>celery -A backend worker -l info -f /var/log/casualapp/celery.log &amp;</t>
-  </si>
-  <si>
-    <t>pkill -9 uwsgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pkill -9 celery </t>
-  </si>
-  <si>
-    <t>celery flower -A backend --port=5555 -f /var/log/casualapp/flower.log &amp;</t>
-  </si>
-  <si>
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191024-04</t>
+    <t>20191026-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,14 +228,8 @@
       <sz val="12"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF242729"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,12 +260,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -329,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -348,9 +303,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
-  <dimension ref="A2:F62"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -688,41 +640,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="16"/>
+      <c r="B3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="19">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="16"/>
+      <c r="B4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="16"/>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
@@ -802,7 +754,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191024-04</v>
+        <v>cp -r backend 20191026-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -820,7 +772,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191024-04/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -838,7 +790,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191024-04/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191026-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -847,7 +799,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191024-04/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191026-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -864,7 +816,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191024-04/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191026-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -883,7 +835,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191024-04.zip 20191024-04</v>
+        <v>zip -r 20191026-01.zip 20191026-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -892,7 +844,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191024-04</v>
+        <v>rm -r 20191026-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -918,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -927,7 +879,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191024-04.zip</v>
+        <v>put 20191026-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -944,7 +896,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191024-04.zip</v>
+        <v>rm -r 20191026-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -958,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -967,7 +919,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191024-04.zip /usr/local/casualapp/</v>
+        <v>mv 20191026-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -975,7 +927,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -984,7 +936,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191024-04.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191026-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -996,7 +948,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191024-04 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191026-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1016,33 +968,52 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="17">
-      <c r="C43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>36</v>
+      <c r="C44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
       <c r="B45" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>29</v>
@@ -1050,145 +1021,57 @@
       <c r="D45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>45</v>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="2"/>
+      <c r="C49" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
-      <c r="C52" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="C53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="C54" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="11" t="s">
+    <row r="51" spans="1:5">
+      <c r="C51" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="C56" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="C57" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="C58" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="C59" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="C60" s="13"/>
-      <c r="D60" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="C62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="E51" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E53" xr:uid="{A8B3ADA8-34F4-324A-9A28-A5521834AEBA}"/>
+  <autoFilter ref="A1:E50" xr:uid="{A8B3ADA8-34F4-324A-9A28-A5521834AEBA}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8284DD91-3612-044A-81AC-C21BD3450448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6318664-1952-694F-9C7B-982DE90D27D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191026-01</t>
+    <t>20191026-02</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191026-01</v>
+        <v>cp -r backend 20191026-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -772,7 +772,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191026-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,7 +790,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191026-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191026-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -799,7 +799,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191026-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191026-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -816,7 +816,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191026-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191026-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191026-01.zip 20191026-01</v>
+        <v>zip -r 20191026-02.zip 20191026-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -844,7 +844,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191026-01</v>
+        <v>rm -r 20191026-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -879,7 +879,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191026-01.zip</v>
+        <v>put 20191026-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191026-01.zip</v>
+        <v>rm -r 20191026-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -919,7 +919,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191026-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191026-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -936,7 +936,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191026-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191026-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -948,7 +948,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191026-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191026-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6318664-1952-694F-9C7B-982DE90D27D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C5F3F-C454-464F-A319-CF6FDCAF8676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191026-02</t>
+    <t>20191028-02</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191026-02</v>
+        <v>cp -r backend 20191028-02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -772,7 +772,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191026-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,7 +790,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191026-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191028-02/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -799,7 +799,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191026-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191028-02/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -816,7 +816,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191026-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191028-02/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191026-02.zip 20191026-02</v>
+        <v>zip -r 20191028-02.zip 20191028-02</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -844,7 +844,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191026-02</v>
+        <v>rm -r 20191028-02</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -879,7 +879,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191026-02.zip</v>
+        <v>put 20191028-02.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191026-02.zip</v>
+        <v>rm -r 20191028-02.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -919,7 +919,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191026-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191028-02.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -936,7 +936,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191026-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191028-02.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -948,7 +948,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191026-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191028-02 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C5F3F-C454-464F-A319-CF6FDCAF8676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24016C-872F-A546-8592-519A1654E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="application deploy commands" sheetId="13" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191028-02</t>
+    <t>20191029-01</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191028-02</v>
+        <v>cp -r backend 20191029-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -772,7 +772,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191028-02/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,7 +790,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191028-02/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191029-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -799,7 +799,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191028-02/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191029-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -816,7 +816,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191028-02/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191029-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191028-02.zip 20191028-02</v>
+        <v>zip -r 20191029-01.zip 20191029-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -844,7 +844,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191028-02</v>
+        <v>rm -r 20191029-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -879,7 +879,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191028-02.zip</v>
+        <v>put 20191029-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191028-02.zip</v>
+        <v>rm -r 20191029-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -919,7 +919,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191028-02.zip /usr/local/casualapp/</v>
+        <v>mv 20191029-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -936,7 +936,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191028-02.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191029-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -948,7 +948,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191028-02 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191029-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">

--- a/deploy.xlsx
+++ b/deploy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.cheung/Documents/learning/casualapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24016C-872F-A546-8592-519A1654E4CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A066F2-740E-4346-AA8D-A275F5578682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="460" windowWidth="24020" windowHeight="17540" xr2:uid="{D70ABF78-F301-B84D-BD2E-246F7AB1B5AF}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <t>bash /usr/local/casualapp/active/startup.sh</t>
   </si>
   <si>
-    <t>20191029-01</t>
+    <t>20191030-01</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895829AB-853F-4A40-A4D0-66E43545364D}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="str">
         <f xml:space="preserve"> "cp -r backend " &amp; $B$4</f>
-        <v>cp -r backend 20191029-01</v>
+        <v>cp -r backend 20191030-01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -772,7 +772,7 @@
       </c>
       <c r="D15" t="str">
         <f>"touch "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/empty.txt &amp;&amp; rm -r "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/* &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/index.html "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/templates/. &amp;&amp; rsync -av --exclude='static' "  &amp; $B$5 &amp;"/frontend/build/* "&amp; $B$5 &amp;"/" &amp; $B$4&amp; "/base/static/. &amp;&amp; rsync -av " &amp; $B$5 &amp;"/frontend/build/static/* "&amp;$B$5&amp;"/" &amp; $B$4&amp; "/base/static/."</f>
-        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191029-01/base/static/.</v>
+        <v>touch /Users/shun.cheung/Documents/learning/casualapp/20191030-01/base/static/empty.txt &amp;&amp; rm -r /Users/shun.cheung/Documents/learning/casualapp/20191030-01/base/static/* &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/index.html /Users/shun.cheung/Documents/learning/casualapp/20191030-01/base/templates/. &amp;&amp; rsync -av --exclude='static' /Users/shun.cheung/Documents/learning/casualapp/frontend/build/* /Users/shun.cheung/Documents/learning/casualapp/20191030-01/base/static/. &amp;&amp; rsync -av /Users/shun.cheung/Documents/learning/casualapp/frontend/build/static/* /Users/shun.cheung/Documents/learning/casualapp/20191030-01/base/static/.</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -790,7 +790,7 @@
       </c>
       <c r="D17" t="str">
         <f>"pip freeze &gt; "&amp;$B$5 &amp;"/"&amp;$B$4&amp;"/requirement.txt"</f>
-        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191029-01/requirement.txt</v>
+        <v>pip freeze &gt; /Users/shun.cheung/Documents/learning/casualapp/20191030-01/requirement.txt</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -799,7 +799,7 @@
       </c>
       <c r="D18" t="str">
         <f>"python "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/manage.py collectstatic"</f>
-        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191029-01/manage.py collectstatic</v>
+        <v>python /Users/shun.cheung/Documents/learning/casualapp/20191030-01/manage.py collectstatic</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -816,7 +816,7 @@
       </c>
       <c r="D21" t="str">
         <f>"vi "&amp;$B$5&amp;"/"&amp;$B$4&amp;"/backend/settings.py"</f>
-        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191029-01/backend/settings.py</v>
+        <v>vi /Users/shun.cheung/Documents/learning/casualapp/20191030-01/backend/settings.py</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="D24" t="str">
         <f>"zip -r "&amp;$B$4&amp;".zip "&amp;$B$4</f>
-        <v>zip -r 20191029-01.zip 20191029-01</v>
+        <v>zip -r 20191030-01.zip 20191030-01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -844,7 +844,7 @@
       </c>
       <c r="D25" t="str">
         <f>"rm -r "&amp;B4</f>
-        <v>rm -r 20191029-01</v>
+        <v>rm -r 20191030-01</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -879,7 +879,7 @@
       </c>
       <c r="D30" t="str">
         <f>"put "&amp;B4&amp;".zip"</f>
-        <v>put 20191029-01.zip</v>
+        <v>put 20191030-01.zip</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="D33" t="str">
         <f>"rm -r "&amp;B4 &amp; ".zip"</f>
-        <v>rm -r 20191029-01.zip</v>
+        <v>rm -r 20191030-01.zip</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -919,7 +919,7 @@
       </c>
       <c r="D36" t="str">
         <f>"mv " &amp; $B$4 &amp;".zip /usr/local/casualapp/"</f>
-        <v>mv 20191029-01.zip /usr/local/casualapp/</v>
+        <v>mv 20191030-01.zip /usr/local/casualapp/</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -936,7 +936,7 @@
       </c>
       <c r="D38" t="str">
         <f>"unzip /usr/local/casualapp/"&amp;$B$4&amp;".zip -d ."</f>
-        <v>unzip /usr/local/casualapp/20191029-01.zip -d .</v>
+        <v>unzip /usr/local/casualapp/20191030-01.zip -d .</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -948,7 +948,7 @@
       </c>
       <c r="D39" t="str">
         <f>"ln -sfn /usr/local/casualapp/"&amp;$B$4&amp;" /usr/local/casualapp/active"</f>
-        <v>ln -sfn /usr/local/casualapp/20191029-01 /usr/local/casualapp/active</v>
+        <v>ln -sfn /usr/local/casualapp/20191030-01 /usr/local/casualapp/active</v>
       </c>
     </row>
     <row r="41" spans="1:5">
